--- a/Course II/R/Diksi/result/таблица_Кофе.xlsx
+++ b/Course II/R/Diksi/result/таблица_Кофе.xlsx
@@ -86,106 +86,106 @@
     <t>Среднее</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>85</t>
+    <t>54</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>57</t>
+    <t>99</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>118</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>105</t>
+    <t>80</t>
   </si>
   <si>
     <t>111</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>116</t>
+    <t>81</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>84</t>
   </si>
 </sst>
 </file>
@@ -279,37 +279,37 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0990533E7</v>
+        <v>3458490.0</v>
       </c>
       <c r="C2" t="n">
-        <v>9884325.0</v>
+        <v>2358939.0</v>
       </c>
       <c r="D2" t="n">
-        <v>269.0</v>
+        <v>215.0</v>
       </c>
       <c r="E2" t="n">
-        <v>326.0</v>
+        <v>216.0</v>
       </c>
       <c r="F2" t="n">
-        <v>32.08248298192822</v>
+        <v>20.295436972501033</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -317,37 +317,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>2.165421E7</v>
+        <v>6080508.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0358678E7</v>
+        <v>4815065.0</v>
       </c>
       <c r="D3" t="n">
-        <v>530.0</v>
+        <v>378.0</v>
       </c>
       <c r="E3" t="n">
-        <v>179.0</v>
+        <v>125.0</v>
       </c>
       <c r="F3" t="n">
-        <v>29.255850045841463</v>
+        <v>40.73900669710378</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -355,37 +355,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>1.2747384E7</v>
+        <v>2155524.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.1508444E7</v>
+        <v>426077.0</v>
       </c>
       <c r="D4" t="n">
-        <v>312.0</v>
+        <v>134.0</v>
       </c>
       <c r="E4" t="n">
-        <v>355.0</v>
+        <v>533.0</v>
       </c>
       <c r="F4" t="n">
-        <v>26.588576136235293</v>
+        <v>26.485395796102246</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -393,37 +393,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>1.7895366E7</v>
+        <v>6997410.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.6544106E7</v>
+        <v>5152843.0</v>
       </c>
       <c r="D5" t="n">
-        <v>438.0</v>
+        <v>435.0</v>
       </c>
       <c r="E5" t="n">
-        <v>295.0</v>
+        <v>292.0</v>
       </c>
       <c r="F5" t="n">
-        <v>21.046433924833465</v>
+        <v>37.36053430840523</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
         <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -431,37 +431,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>8212257.0</v>
+        <v>4037586.0</v>
       </c>
       <c r="C6" t="n">
-        <v>7169301.0</v>
+        <v>2251131.0</v>
       </c>
       <c r="D6" t="n">
-        <v>201.0</v>
+        <v>251.0</v>
       </c>
       <c r="E6" t="n">
-        <v>357.0</v>
+        <v>444.0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.82121396823529</v>
+        <v>27.131952696826986</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
         <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -469,37 +469,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>1.6873941E7</v>
+        <v>7093926.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5483729E7</v>
+        <v>5061487.0</v>
       </c>
       <c r="D7" t="n">
-        <v>413.0</v>
+        <v>441.0</v>
       </c>
       <c r="E7" t="n">
-        <v>339.0</v>
+        <v>358.0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.32414598468979</v>
+        <v>30.463092423455635</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
         <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -507,31 +507,31 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>1.307424E7</v>
+        <v>6353970.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1971632E7</v>
+        <v>4354406.0</v>
       </c>
       <c r="D8" t="n">
-        <v>320.0</v>
+        <v>395.0</v>
       </c>
       <c r="E8" t="n">
-        <v>276.0</v>
+        <v>389.0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.65689303162609</v>
+        <v>36.29902268132088</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
         <v>55</v>
@@ -545,37 +545,37 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>2.124564E7</v>
+        <v>7705194.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9744872E7</v>
+        <v>5811746.0</v>
       </c>
       <c r="D9" t="n">
-        <v>520.0</v>
+        <v>479.0</v>
       </c>
       <c r="E9" t="n">
-        <v>296.0</v>
+        <v>269.0</v>
       </c>
       <c r="F9" t="n">
-        <v>35.631045852899526</v>
+        <v>32.28445003845837</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -583,37 +583,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>9969108.0</v>
+        <v>3490662.0</v>
       </c>
       <c r="C10" t="n">
-        <v>8671308.0</v>
+        <v>1896022.0</v>
       </c>
       <c r="D10" t="n">
-        <v>244.0</v>
+        <v>217.0</v>
       </c>
       <c r="E10" t="n">
-        <v>450.0</v>
+        <v>403.0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.23682060178996</v>
+        <v>12.382783747337808</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
         <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -621,37 +621,37 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>1.4871948E7</v>
+        <v>6257454.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.351842E7</v>
+        <v>4272776.0</v>
       </c>
       <c r="D11" t="n">
-        <v>364.0</v>
+        <v>389.0</v>
       </c>
       <c r="E11" t="n">
-        <v>366.0</v>
+        <v>389.0</v>
       </c>
       <c r="F11" t="n">
-        <v>28.472208672083497</v>
+        <v>42.21712584112891</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -659,37 +659,37 @@
         <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>1.47534627E8</v>
+        <v>5.3630724E7</v>
       </c>
       <c r="C12" t="n">
-        <v>1.34854815E8</v>
+        <v>3.6400492E7</v>
       </c>
       <c r="D12" t="n">
-        <v>3611.0</v>
+        <v>3334.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3239.0</v>
+        <v>3418.0</v>
       </c>
       <c r="F12" t="n">
-        <v>301.1156712001626</v>
+        <v>305.65880120264086</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -697,37 +697,37 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>1.47534627E7</v>
+        <v>5363072.4</v>
       </c>
       <c r="C13" t="n">
-        <v>1.34854815E7</v>
+        <v>3640049.2</v>
       </c>
       <c r="D13" t="n">
-        <v>361.1</v>
+        <v>333.4</v>
       </c>
       <c r="E13" t="n">
-        <v>323.9</v>
+        <v>341.8</v>
       </c>
       <c r="F13" t="n">
-        <v>30.11156712001626</v>
+        <v>30.565880120264087</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Course II/R/Diksi/result/таблица_Кофе.xlsx
+++ b/Course II/R/Diksi/result/таблица_Кофе.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Магазин</t>
   </si>
@@ -86,106 +86,118 @@
     <t>Среднее</t>
   </si>
   <si>
-    <t>54</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>138</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>114</t>
+    <t>110</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Воскресенье</t>
+  </si>
+  <si>
+    <t>Пятница</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>99</t>
+    <t>97</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Четверг</t>
-  </si>
-  <si>
-    <t>Суббота</t>
-  </si>
-  <si>
-    <t>Пятница</t>
-  </si>
-  <si>
-    <t>Вторник</t>
-  </si>
-  <si>
-    <t>Воскресенье</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Понедельник</t>
-  </si>
-  <si>
-    <t>Среда</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>84</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -279,19 +291,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>3458490.0</v>
+        <v>5091486.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2358939.0</v>
+        <v>1307009.0</v>
       </c>
       <c r="D2" t="n">
-        <v>215.0</v>
+        <v>379.0</v>
       </c>
       <c r="E2" t="n">
-        <v>216.0</v>
+        <v>378.0</v>
       </c>
       <c r="F2" t="n">
-        <v>20.295436972501033</v>
+        <v>42.36519236129495</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -300,16 +312,16 @@
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -317,37 +329,37 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>6080508.0</v>
+        <v>6945378.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4815065.0</v>
+        <v>3555719.0</v>
       </c>
       <c r="D3" t="n">
-        <v>378.0</v>
+        <v>517.0</v>
       </c>
       <c r="E3" t="n">
-        <v>125.0</v>
+        <v>171.0</v>
       </c>
       <c r="F3" t="n">
-        <v>40.73900669710378</v>
+        <v>43.22587408573932</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
         <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -355,37 +367,37 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>2155524.0</v>
+        <v>1638948.0</v>
       </c>
       <c r="C4" t="n">
-        <v>426077.0</v>
+        <v>-1463634.0</v>
       </c>
       <c r="D4" t="n">
-        <v>134.0</v>
+        <v>122.0</v>
       </c>
       <c r="E4" t="n">
-        <v>533.0</v>
+        <v>488.0</v>
       </c>
       <c r="F4" t="n">
-        <v>26.485395796102246</v>
+        <v>14.570027943889274</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -393,37 +405,37 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>6997410.0</v>
+        <v>859776.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5152843.0</v>
+        <v>-2388168.0</v>
       </c>
       <c r="D5" t="n">
-        <v>435.0</v>
+        <v>64.0</v>
       </c>
       <c r="E5" t="n">
-        <v>292.0</v>
+        <v>571.0</v>
       </c>
       <c r="F5" t="n">
-        <v>37.36053430840523</v>
+        <v>8.629958891917765</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -431,37 +443,37 @@
         <v>16</v>
       </c>
       <c r="B6" t="n">
-        <v>4037586.0</v>
+        <v>7872324.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2251131.0</v>
+        <v>4538614.0</v>
       </c>
       <c r="D6" t="n">
-        <v>251.0</v>
+        <v>586.0</v>
       </c>
       <c r="E6" t="n">
-        <v>444.0</v>
+        <v>95.0</v>
       </c>
       <c r="F6" t="n">
-        <v>27.131952696826986</v>
+        <v>41.20968448360282</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -469,37 +481,37 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>7093926.0</v>
+        <v>5413902.0</v>
       </c>
       <c r="C7" t="n">
-        <v>5061487.0</v>
+        <v>2341089.0</v>
       </c>
       <c r="D7" t="n">
-        <v>441.0</v>
+        <v>403.0</v>
       </c>
       <c r="E7" t="n">
-        <v>358.0</v>
+        <v>217.0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.463092423455635</v>
+        <v>41.22239335950442</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
@@ -507,37 +519,37 @@
         <v>18</v>
       </c>
       <c r="B8" t="n">
-        <v>6353970.0</v>
+        <v>8517156.0</v>
       </c>
       <c r="C8" t="n">
-        <v>4354406.0</v>
+        <v>5243614.0</v>
       </c>
       <c r="D8" t="n">
-        <v>395.0</v>
+        <v>634.0</v>
       </c>
       <c r="E8" t="n">
-        <v>389.0</v>
+        <v>38.0</v>
       </c>
       <c r="F8" t="n">
-        <v>36.29902268132088</v>
+        <v>36.8775321971574</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -545,19 +557,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>7705194.0</v>
+        <v>5884092.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5811746.0</v>
+        <v>2497322.0</v>
       </c>
       <c r="D9" t="n">
-        <v>479.0</v>
+        <v>438.0</v>
       </c>
       <c r="E9" t="n">
-        <v>269.0</v>
+        <v>245.0</v>
       </c>
       <c r="F9" t="n">
-        <v>32.28445003845837</v>
+        <v>34.13139875470065</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -566,16 +578,16 @@
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -583,37 +595,37 @@
         <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>3490662.0</v>
+        <v>3707784.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1896022.0</v>
+        <v>639420.0</v>
       </c>
       <c r="D10" t="n">
-        <v>217.0</v>
+        <v>276.0</v>
       </c>
       <c r="E10" t="n">
-        <v>403.0</v>
+        <v>336.0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.382783747337808</v>
+        <v>37.179103193672034</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -621,34 +633,34 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>6257454.0</v>
+        <v>6878208.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4272776.0</v>
+        <v>4094096.0</v>
       </c>
       <c r="D11" t="n">
-        <v>389.0</v>
+        <v>512.0</v>
       </c>
       <c r="E11" t="n">
-        <v>389.0</v>
+        <v>58.0</v>
       </c>
       <c r="F11" t="n">
-        <v>42.21712584112891</v>
+        <v>44.46507457705269</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -659,19 +671,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="n">
-        <v>5.3630724E7</v>
+        <v>5.2809054E7</v>
       </c>
       <c r="C12" t="n">
-        <v>3.6400492E7</v>
+        <v>2.0365081E7</v>
       </c>
       <c r="D12" t="n">
-        <v>3334.0</v>
+        <v>3931.0</v>
       </c>
       <c r="E12" t="n">
-        <v>3418.0</v>
+        <v>2597.0</v>
       </c>
       <c r="F12" t="n">
-        <v>305.65880120264086</v>
+        <v>343.8762398485313</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
@@ -697,19 +709,19 @@
         <v>23</v>
       </c>
       <c r="B13" t="n">
-        <v>5363072.4</v>
+        <v>5280905.4</v>
       </c>
       <c r="C13" t="n">
-        <v>3640049.2</v>
+        <v>2036508.1</v>
       </c>
       <c r="D13" t="n">
-        <v>333.4</v>
+        <v>393.1</v>
       </c>
       <c r="E13" t="n">
-        <v>341.8</v>
+        <v>259.7</v>
       </c>
       <c r="F13" t="n">
-        <v>30.565880120264087</v>
+        <v>34.387623984853136</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
